--- a/analysis_specifications/analysis2_evan_1.xlsx
+++ b/analysis_specifications/analysis2_evan_1.xlsx
@@ -497,7 +497,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -535,24 +535,24 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acute Urinary tract infections UTI</t>
+          <t>Acute Kidney Injury AKI</t>
         </is>
       </c>
       <c r="C3">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>934</v>
+        <v>410</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Persons with heart failure</t>
+          <t>Acute Urinary tract infections UTI</t>
         </is>
       </c>
       <c r="C4">
@@ -561,28 +561,93 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>965</v>
+        <v>934</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3-point MACE</t>
+          <t>Persons with heart failure</t>
         </is>
       </c>
       <c r="C5">
-        <v>180</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
+        <v>938</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hospitalization with heart failure events</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>965</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3-point MACE</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
         <v>967</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>4-point MACE</t>
         </is>
       </c>
-      <c r="C6">
+      <c r="C8">
         <v>180</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>1081</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Acute Myocardial Infarction</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>1088</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Deep Vein Thrombosis (DVT)</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>1090</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pulmonary Embolism</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>365</v>
       </c>
     </row>
   </sheetData>

--- a/analysis_specifications/analysis2_evan_1.xlsx
+++ b/analysis_specifications/analysis2_evan_1.xlsx
@@ -497,7 +497,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -548,106 +548,158 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Acute Urinary tract infections UTI</t>
+          <t>Atrial Fibrillation or Flutter</t>
         </is>
       </c>
       <c r="C4">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>934</v>
+        <v>410</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Persons with heart failure</t>
+          <t>Acute Urinary tract infections UTI</t>
         </is>
       </c>
       <c r="C5">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>938</v>
+        <v>411</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hospitalization with heart failure events</t>
+          <t>Sepsis or Septic Shock</t>
         </is>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>965</v>
+        <v>934</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3-point MACE</t>
+          <t>Persons with heart failure</t>
         </is>
       </c>
       <c r="C7">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>967</v>
+        <v>938</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4-point MACE</t>
+          <t>Hospitalization with heart failure events</t>
         </is>
       </c>
       <c r="C8">
-        <v>180</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1081</v>
+        <v>965</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Acute Myocardial Infarction</t>
+          <t>3-point MACE</t>
         </is>
       </c>
       <c r="C9">
-        <v>365</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1088</v>
+        <v>967</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Deep Vein Thrombosis (DVT)</t>
+          <t>4-point MACE</t>
         </is>
       </c>
       <c r="C10">
-        <v>365</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1090</v>
+        <v>1081</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pulmonary Embolism</t>
+          <t>Acute Myocardial Infarction including its complications</t>
         </is>
       </c>
       <c r="C11">
         <v>365</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>1088</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Deep Vein Thrombosis (DVT)</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>1090</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Pulmonary Embolism</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>1104</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>RBC Transfusion (adult relevant, no auto 1yr clean window)</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>1105</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Clostridium difficile - first episode</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
